--- a/data-raw/district_denominator.xlsx
+++ b/data-raw/district_denominator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Robinson/Afenet-projects/afenet-uganda/malariaRA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C3D29F-46C2-414E-84E9-2EA3A98E2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE440F1E-7061-E541-B92F-ADB4433EF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="0" windowWidth="15360" windowHeight="16000" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="13880" xr2:uid="{34179EBF-EA7A-454E-A815-C1EFFB15E6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -511,13 +511,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
